--- a/data/trans_camb/P23_DUKE_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_DUKE_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,19</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>10,31</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,69</t>
+          <t>9,37</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,09</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,02</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>9,27</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-42,05; 5,4</t>
+          <t>-10,05; 23,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,86; 24,14</t>
+          <t>-11,51; 24,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 15,39</t>
+          <t>-4,91; 25,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 46,14</t>
+          <t>-3,77; 29,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 6,59</t>
+          <t>-6,55; 27,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 29,04</t>
+          <t>-9,98; 25,64</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 21,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 21,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 21,84</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,66%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,8%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,36%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-18,48%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,05; 31,72</t>
+          <t>-11,01; 33,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,89; 135,1</t>
+          <t>-13,02; 34,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 116,36</t>
+          <t>-5,28; 34,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 440,33</t>
+          <t>-4,25; 46,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,66; 40,19</t>
+          <t>-7,0; 43,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,23; 168,92</t>
+          <t>-11,78; 40,05</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 30,75</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 29,44</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 30,24</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,06</t>
+          <t>9,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>12,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,75</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>5,27</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,01</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 11,68</t>
+          <t>-0,9; 24,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 9,84</t>
+          <t>-4,42; 23,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 5,87</t>
+          <t>2,55; 27,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 3,91</t>
+          <t>-5,65; 7,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 6,2</t>
+          <t>-13,74; 1,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 4,01</t>
+          <t>-11,25; 3,44</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 14,01</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 9,16</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 13,42</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-4,47%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,58%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>-6,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>-4,33%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,34%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>4,82%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,34; 94,34</t>
+          <t>-0,99; 38,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-40,83; 81,56</t>
+          <t>-5,34; 35,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,76; 35,43</t>
+          <t>3,23; 44,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-40,08; 24,59</t>
+          <t>-6,03; 8,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 41,69</t>
+          <t>-15,21; 2,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,78; 25,83</t>
+          <t>-12,27; 3,99</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 18,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,67; 11,67</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 17,8</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>5,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 8,92</t>
+          <t>-4,03; 14,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 10,65</t>
+          <t>-4,71; 14,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,02</t>
+          <t>-5,69; 14,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 14,43</t>
+          <t>-11,51; 2,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 3,91</t>
+          <t>-6,62; 6,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 10,12</t>
+          <t>-7,67; 4,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,19; 5,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,01; 7,25</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 6,43</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,73%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-21,71%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,2%</t>
+          <t>-0,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>60,18%</t>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 165,04</t>
+          <t>-4,38; 19,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-32,01; 184,89</t>
+          <t>-5,25; 18,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,68; 43,88</t>
+          <t>-6,36; 19,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 174,13</t>
+          <t>-12,23; 2,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 49,73</t>
+          <t>-7,07; 7,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,57; 130,55</t>
+          <t>-8,13; 5,42</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 6,27</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-4,39; 8,45</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-4,37; 7,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,75; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 8,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 13,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 7,6</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-4,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>25,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 50,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 63,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,33; 22,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 84,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 22,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 51,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7,44</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>5,29</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>8,94</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,66</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>3,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,37; 16,27</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,61; 14,29</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>2,54; 17,51</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 5,02</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,31; 3,24</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; 3,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,42; 8,6</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,6; 6,41</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,53; 8,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9,21%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>11,06%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-1,67%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>4,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 22,23</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 19,4</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3,02; 23,42</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-5,12; 5,77</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 3,79</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 4,26</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 10,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,97; 7,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 10,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
